--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2818392.18767236</v>
+        <v>2807069.05498074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11587061.69304258</v>
+        <v>11583143.56754067</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118823.667509597</v>
+        <v>2120974.48405216</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101383.905505566</v>
+        <v>8103689.260591215</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>13.91332762480666</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.6691642751063</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572903</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514543</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1584,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>233.3580714035612</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>156.1919951969892</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1675,7 +1675,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404359</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245.8644584007179</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
@@ -1897,19 +1897,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>109.0274290851916</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797761</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145565</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
@@ -2089,16 +2089,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>237.4037513153048</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>48.1965569514159</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>255.3342916587941</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2386,7 +2386,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>283.3850917015908</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T25" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>43.98432467468479</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524988</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.2197794897929</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712138</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>115.9373386665188</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>323.6959619980816</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>16.74567749205799</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>162.3410403666942</v>
+        <v>54.54219987970125</v>
       </c>
       <c r="U29" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.0063591289455</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S31" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>297.4790285486654</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536693</v>
@@ -3043,7 +3043,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.632627768728</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>316.7744094091656</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3195,7 +3195,7 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279762</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
         <v>98.44591140433872</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128494</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052355</v>
@@ -3268,7 +3268,7 @@
         <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
         <v>307.7079050020905</v>
@@ -3280,10 +3280,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>120.8005049610255</v>
       </c>
       <c r="H35" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>151.646421997013</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
@@ -3334,7 +3334,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3444,7 +3444,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128494</v>
@@ -3480,7 +3480,7 @@
         <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052355</v>
@@ -3514,13 +3514,13 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>54.54219987970028</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>182.4221681219587</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3681,7 +3681,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128494</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.335634817814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>142.5708055487648</v>
       </c>
       <c r="D41" t="n">
-        <v>349.2848347750164</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960449</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077869</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H41" t="n">
-        <v>289.2095575416539</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.17872292725937</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425093</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939536</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132354</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>62.21448197296256</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.839731810387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>143.2172661725458</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009026</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772647</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133617</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686542</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>37.02985767067333</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064282</v>
+        <v>35.70147948867631</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.335634817814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>359.874684925341</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>349.2848347750164</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
-        <v>405.5235188077869</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.17872292725937</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.7895549425093</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>198.5197632939536</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>245.5969651132354</v>
+        <v>116.9388157418491</v>
       </c>
       <c r="V44" t="n">
-        <v>322.3540516244684</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8427618717465</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>364.3328938328025</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>119.8693811932848</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>161.8486142529613</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.0228411772647</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.6276014133617</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.53394582438077</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>184.3708184857753</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>214.1507424305026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>246.7394364781615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>281.1247914909245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>220.3114485433706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.7706274785456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1457.522709123157</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C11" t="n">
-        <v>1136.009825130819</v>
+        <v>979.8546354718744</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>669.0385698131972</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>330.6999501630264</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,13 +5041,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5086,7 +5086,7 @@
         <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1796.672916239206</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052951</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998345</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657647</v>
@@ -5199,13 +5199,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5220,7 +5220,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
         <v>2256.956805813347</v>
@@ -5232,19 +5232,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1640.517726580261</v>
+        <v>1707.656676566316</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.004842587922</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1008.188776929245</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>669.8501572790744</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,13 +5290,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3167.836129491</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2961.755285712909</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2678.142031317412</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2372.823008995371</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>2046.806883682365</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5439,7 +5439,7 @@
         <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5454,22 +5454,22 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
@@ -5478,10 +5478,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="17">
@@ -5518,13 +5518,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5545,22 +5545,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638544</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V17" t="n">
-        <v>2898.155827638544</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W17" t="n">
-        <v>2592.836805316504</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="X17" t="n">
-        <v>2266.820680003497</v>
+        <v>2357.622949341042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2266.820680003497</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052953</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254617</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611993</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5691,34 +5691,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832863</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874617</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1640.517726580263</v>
+        <v>1680.134122574823</v>
       </c>
       <c r="C20" t="n">
-        <v>1319.004842587924</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="D20" t="n">
-        <v>1008.188776929247</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E20" t="n">
-        <v>669.8501572790761</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>306.3138854375419</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416636</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638546</v>
+        <v>3276.922430749154</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243049</v>
+        <v>2993.309176353657</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921008</v>
+        <v>2687.990154031616</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425608001</v>
+        <v>2361.97402871861</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580263</v>
+        <v>2019.284329690871</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5931,31 +5931,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1644.057218491952</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="C23" t="n">
-        <v>1386.143792573978</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D23" t="n">
         <v>1386.143792573978</v>
@@ -5983,19 +5983,19 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6004,37 +6004,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T23" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U23" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V23" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W23" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X23" t="n">
-        <v>1983.207425608001</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.207425608001</v>
+        <v>1696.959858232656</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6132,25 +6132,25 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L25" t="n">
         <v>771.6978860337113</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.636827539664</v>
+        <v>1812.767385564344</v>
       </c>
       <c r="C26" t="n">
-        <v>1468.636827539664</v>
+        <v>1491.254501572006</v>
       </c>
       <c r="D26" t="n">
-        <v>1152.368027693445</v>
+        <v>1180.438435913329</v>
       </c>
       <c r="E26" t="n">
-        <v>808.576673855732</v>
+        <v>842.0998162631578</v>
       </c>
       <c r="F26" t="n">
-        <v>439.5876678266557</v>
+        <v>478.5635444216235</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>110.9407272146933</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6241,37 +6241,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3257.312051896798</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T26" t="n">
-        <v>3257.312051896798</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U26" t="n">
-        <v>3045.778473931166</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V26" t="n">
-        <v>2756.712485348126</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W26" t="n">
-        <v>2445.940728838544</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="X26" t="n">
-        <v>2114.471869337995</v>
+        <v>2494.607291708131</v>
       </c>
       <c r="Y26" t="n">
-        <v>1813.239768843255</v>
+        <v>2151.917592680393</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>797.6353891180886</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C28" t="n">
-        <v>670.696104950713</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D28" t="n">
-        <v>562.5763642989085</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E28" t="n">
-        <v>456.6601694770467</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F28" t="n">
-        <v>351.7671207396676</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G28" t="n">
-        <v>226.0611828749178</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H28" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K28" t="n">
-        <v>397.9442527783888</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L28" t="n">
-        <v>755.6652117020816</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M28" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N28" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P28" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q28" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R28" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S28" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T28" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U28" t="n">
-        <v>1762.183148430067</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V28" t="n">
-        <v>1549.495558984711</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W28" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X28" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y28" t="n">
-        <v>937.286955187797</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1309.124589926698</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C29" t="n">
-        <v>982.1589717468171</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D29" t="n">
-        <v>665.8901719005979</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E29" t="n">
-        <v>322.098818062885</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F29" t="n">
-        <v>322.098818062885</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G29" t="n">
-        <v>322.098818062885</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
@@ -6481,34 +6481,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3308.690995859618</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T29" t="n">
-        <v>3144.710147004372</v>
+        <v>3207.671654892722</v>
       </c>
       <c r="U29" t="n">
-        <v>2933.176569038739</v>
+        <v>3001.590811114632</v>
       </c>
       <c r="V29" t="n">
-        <v>2644.1105804557</v>
+        <v>2717.977556719135</v>
       </c>
       <c r="W29" t="n">
-        <v>2333.338823946117</v>
+        <v>2412.658534397094</v>
       </c>
       <c r="X29" t="n">
-        <v>2001.869964445569</v>
+        <v>2086.642409084087</v>
       </c>
       <c r="Y29" t="n">
-        <v>1653.727531230288</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>671.9294512533387</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C31" t="n">
-        <v>544.9901670859631</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D31" t="n">
-        <v>436.8704264341587</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E31" t="n">
-        <v>330.9542316122968</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F31" t="n">
-        <v>226.0611828749178</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G31" t="n">
-        <v>226.0611828749178</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H31" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K31" t="n">
-        <v>397.9442527783888</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L31" t="n">
-        <v>755.6652117020816</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M31" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O31" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P31" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R31" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S31" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T31" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U31" t="n">
-        <v>1632.185603211715</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V31" t="n">
-        <v>1419.498013766359</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W31" t="n">
-        <v>1172.07774248993</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0850903524441</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.2894099694453</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1340.033859359387</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C32" t="n">
-        <v>1018.520975367048</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D32" t="n">
-        <v>1018.520975367048</v>
+        <v>1386.143792573979</v>
       </c>
       <c r="E32" t="n">
-        <v>680.1823557168773</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F32" t="n">
-        <v>316.646083875343</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G32" t="n">
         <v>316.646083875343</v>
@@ -6709,7 +6709,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2614.542573243047</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2309.223550921006</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X32" t="n">
-        <v>1983.207425607999</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y32" t="n">
-        <v>1640.517726580261</v>
+        <v>2357.622949341043</v>
       </c>
     </row>
     <row r="33">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D34" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E34" t="n">
         <v>434.8492327268787</v>
@@ -6903,7 +6903,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y34" t="n">
-        <v>893.6650816874607</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1696.959858232656</v>
+        <v>1522.736669656748</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232656</v>
+        <v>1201.22378566441</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573979</v>
+        <v>890.4077200057327</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923808</v>
+        <v>552.0691003555617</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822733</v>
+        <v>188.5328285140274</v>
       </c>
       <c r="G35" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416636</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2951.058467379249</v>
+        <v>3119.52497783108</v>
       </c>
       <c r="V35" t="n">
-        <v>2667.445212983752</v>
+        <v>2835.911723435583</v>
       </c>
       <c r="W35" t="n">
-        <v>2362.126190661711</v>
+        <v>2530.592701113542</v>
       </c>
       <c r="X35" t="n">
-        <v>2036.110065348704</v>
+        <v>2204.576575800535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2036.110065348704</v>
+        <v>1861.886876772797</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7086,22 +7086,22 @@
         <v>335.4089181770415</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7113,7 +7113,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q37" t="n">
         <v>2299.337630107746</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1400.715957574904</v>
+        <v>1459.895634131917</v>
       </c>
       <c r="C38" t="n">
-        <v>1079.203073582566</v>
+        <v>1138.382750139578</v>
       </c>
       <c r="D38" t="n">
-        <v>768.3870079238887</v>
+        <v>827.5666844809011</v>
       </c>
       <c r="E38" t="n">
-        <v>430.0483882737178</v>
+        <v>489.2280648307301</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218345</v>
+        <v>489.2280648307301</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218345</v>
+        <v>121.6052476237999</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416636</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638546</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V38" t="n">
-        <v>2713.891011353739</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W38" t="n">
-        <v>2408.571989031698</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="X38" t="n">
-        <v>2082.555863718691</v>
+        <v>2141.735540275704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1739.866164690953</v>
+        <v>1799.045841247965</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D39" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601605</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
         <v>1685.951113992584</v>
@@ -7274,7 +7274,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125857</v>
@@ -7283,16 +7283,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7323,31 +7323,31 @@
         <v>335.4089181770415</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M40" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
         <v>2175.221948702825</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1943.488516608302</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1943.488516608302</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.675552189093</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.340033778391</v>
+        <v>934.567370137326</v>
       </c>
       <c r="F41" t="n">
-        <v>804.8068631763251</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G41" t="n">
-        <v>395.1871472088636</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0562810051727</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3220.76788732381</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3020.242873895574</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2772.165131356952</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2709.322220273151</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2709.322220273151</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2709.322220273151</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2324.635622484881</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>961.571598134901</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C43" t="n">
-        <v>798.0881493945361</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D43" t="n">
-        <v>653.4242441697423</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E43" t="n">
-        <v>510.9638847748912</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F43" t="n">
-        <v>369.5266714645228</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>207.2765690267837</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9789736563289</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824152</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081213</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848803</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467955</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165578</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376447</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1970.048346306172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1932.644449669128</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1932.644449669128</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1932.644449669128</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.412695650783</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W43" t="n">
-        <v>1399.448259801365</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X43" t="n">
-        <v>1176.911443090889</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.571598134901</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1228.998744144713</v>
+        <v>1636.62442258179</v>
       </c>
       <c r="C44" t="n">
-        <v>865.4889613918428</v>
+        <v>1636.62442258179</v>
       </c>
       <c r="D44" t="n">
-        <v>512.6759969726343</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>512.6759969726343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>512.6759969726343</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0562810051727</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0562810051727</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3220.76788732381</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3020.242873895574</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2772.165131356952</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="V44" t="n">
-        <v>2446.554978200923</v>
+        <v>2766.132249891838</v>
       </c>
       <c r="W44" t="n">
-        <v>2099.239057118351</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X44" t="n">
-        <v>1731.226033044813</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y44" t="n">
-        <v>1610.145850021293</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.6828809206559</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C46" t="n">
-        <v>370.199432180291</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D46" t="n">
-        <v>370.199432180291</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E46" t="n">
-        <v>370.199432180291</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F46" t="n">
-        <v>228.7622188699225</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>116.9789736563289</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>326.3103813824152</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>648.2144046081213</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>997.7156749848803</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1344.468276467955</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1649.142100165578</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1887.093825376447</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1970.048346306172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1885.670623251242</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1699.43747326561</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1483.123592022678</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1483.123592022678</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1233.891838004333</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>949.9274021549147</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>727.3905854444394</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.6828809206559</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>144.9316451224475</v>
+        <v>145.9254860206956</v>
       </c>
       <c r="K5" t="n">
-        <v>165.9639378540123</v>
+        <v>167.4534477338105</v>
       </c>
       <c r="L5" t="n">
-        <v>168.6184335159521</v>
+        <v>170.4663022333151</v>
       </c>
       <c r="M5" t="n">
-        <v>155.6311658287597</v>
+        <v>157.6872758230101</v>
       </c>
       <c r="N5" t="n">
-        <v>153.4890282953718</v>
+        <v>155.578408298926</v>
       </c>
       <c r="O5" t="n">
-        <v>158.405297838913</v>
+        <v>160.3782401284277</v>
       </c>
       <c r="P5" t="n">
-        <v>170.0447526865493</v>
+        <v>171.728613285017</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.3558675767486</v>
+        <v>177.6203767601025</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>105.3282211729471</v>
+        <v>105.9201460034519</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0784390178912</v>
+        <v>102.0901328336238</v>
       </c>
       <c r="L6" t="n">
-        <v>89.12198950242245</v>
+        <v>90.48233668844635</v>
       </c>
       <c r="M6" t="n">
-        <v>84.44876604345282</v>
+        <v>86.03622704611115</v>
       </c>
       <c r="N6" t="n">
-        <v>72.12968681189386</v>
+        <v>73.75916318365492</v>
       </c>
       <c r="O6" t="n">
-        <v>88.4288093291849</v>
+        <v>89.91946186529718</v>
       </c>
       <c r="P6" t="n">
-        <v>90.50026524889861</v>
+        <v>91.69664532737772</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.9204613573082</v>
+        <v>111.7202097565009</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>106.5079317817328</v>
+        <v>107.2888413091045</v>
       </c>
       <c r="M7" t="n">
-        <v>109.0064855860438</v>
+        <v>109.8298451910622</v>
       </c>
       <c r="N7" t="n">
-        <v>98.47766014578986</v>
+        <v>99.28144209970014</v>
       </c>
       <c r="O7" t="n">
-        <v>111.4783298497692</v>
+        <v>112.2207525800845</v>
       </c>
       <c r="P7" t="n">
-        <v>114.6434859605197</v>
+        <v>115.2787568637944</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8458,16 +8458,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -8552,7 +8552,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,7 +8619,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.87723187405947</v>
+        <v>14.88894151217783</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>345.9875814983122</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>154.5936377623547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>126.5428377195576</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.7508383240383125</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.89424664417015</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>213.7285349746849</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>126.542837719556</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>155.8234783888935</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>62.96346349362088</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>55.87771033587023</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>203.6483030940431</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.44122939333477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6975697661682</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>369.3447958805275</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.86515452319189</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>102.4006336413263</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.248691280065856</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861023</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38.27967649622269</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>5.981554650710962</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>243.1460840738355</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>52.37361334329646</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>247.632627768728</v>
+        <v>193.0904278890277</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>98.35495372958366</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>359.874684925341</v>
+        <v>222.7020862222428</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>260.1395696515058</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717465</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>364.3328938328025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362707</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417154</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438077</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>147.340960815102</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599463</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>182.8831738634185</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>376.5321632265952</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>401.4778388960449</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>289.2095575416539</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>134.056356217053</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>260.9703506171022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.4337733362707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>143.2172661725458</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>141.0357558009026</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>139.3568080686542</v>
+        <v>69.99732345939698</v>
       </c>
       <c r="I46" t="n">
-        <v>90.95421356417154</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>280.8136313599463</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.41581902788261</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>792852.4278210101</v>
+        <v>793596.0560900776</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680553.5689888465</v>
+        <v>680553.5689888466</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680553.5689888467</v>
+        <v>680553.5689888466</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672587.1285285477</v>
+        <v>680553.5689888466</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672587.1285285478</v>
+        <v>680553.5689888466</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680553.5689888465</v>
+        <v>680553.5689888466</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680553.5689888466</v>
+        <v>680553.5689888465</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680553.5689888466</v>
+        <v>680553.5689888465</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>616676.284101445</v>
+        <v>608333.8585343452</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>616676.284101445</v>
+        <v>608333.8585343452</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>716867.8250590186</v>
       </c>
       <c r="C2" t="n">
-        <v>716896.432845309</v>
+        <v>716895.617269014</v>
       </c>
       <c r="D2" t="n">
-        <v>716932.5347880842</v>
+        <v>716932.534788084</v>
       </c>
       <c r="E2" t="n">
-        <v>668964.6336536116</v>
+        <v>668964.633653613</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.633653613</v>
+        <v>668964.6336536128</v>
       </c>
       <c r="G2" t="n">
-        <v>668964.6336536114</v>
+        <v>668964.6336536113</v>
       </c>
       <c r="H2" t="n">
-        <v>668964.633653613</v>
+        <v>668964.6336536127</v>
       </c>
       <c r="I2" t="n">
         <v>668964.6336536128</v>
       </c>
       <c r="J2" t="n">
-        <v>660998.1931933138</v>
+        <v>668964.633653613</v>
       </c>
       <c r="K2" t="n">
-        <v>660998.1931933138</v>
+        <v>668964.6336536126</v>
       </c>
       <c r="L2" t="n">
-        <v>668964.6336536115</v>
+        <v>668964.6336536125</v>
       </c>
       <c r="M2" t="n">
-        <v>668964.6336536128</v>
+        <v>668964.6336536129</v>
       </c>
       <c r="N2" t="n">
-        <v>668964.6336536128</v>
+        <v>668964.6336536127</v>
       </c>
       <c r="O2" t="n">
-        <v>605087.3487662115</v>
+        <v>596744.923199111</v>
       </c>
       <c r="P2" t="n">
-        <v>605087.3487662114</v>
+        <v>596744.9231991111</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>3540.182044145911</v>
       </c>
       <c r="C3" t="n">
-        <v>93036.8121856465</v>
+        <v>90384.43573804526</v>
       </c>
       <c r="D3" t="n">
-        <v>110422.1757827291</v>
+        <v>112916.7149150789</v>
       </c>
       <c r="E3" t="n">
         <v>972725.1766621994</v>
@@ -26380,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.483583673689282e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834079</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4318.565476533235</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>445906.8244261798</v>
       </c>
       <c r="C4" t="n">
-        <v>415410.1982973827</v>
+        <v>416275.348434309</v>
       </c>
       <c r="D4" t="n">
         <v>377175.7121142549</v>
@@ -26429,22 +26429,22 @@
         <v>59435.44534362319</v>
       </c>
       <c r="F4" t="n">
+        <v>59435.44534362321</v>
+      </c>
+      <c r="G4" t="n">
         <v>59435.44534362319</v>
       </c>
-      <c r="G4" t="n">
-        <v>59435.44534362312</v>
-      </c>
       <c r="H4" t="n">
-        <v>59435.44534362314</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="I4" t="n">
-        <v>59435.44534362314</v>
+        <v>59435.44534362319</v>
       </c>
       <c r="J4" t="n">
-        <v>54225.56755106137</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="K4" t="n">
-        <v>54225.56755106137</v>
+        <v>59435.44534362319</v>
       </c>
       <c r="L4" t="n">
         <v>59435.44534362313</v>
@@ -26456,10 +26456,10 @@
         <v>59435.44534362313</v>
       </c>
       <c r="O4" t="n">
-        <v>17665.31380597766</v>
+        <v>12210.17896214067</v>
       </c>
       <c r="P4" t="n">
-        <v>17665.31380597768</v>
+        <v>12210.17896214067</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="C5" t="n">
-        <v>35935.01071514262</v>
+        <v>35871.51227503629</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26481,37 +26481,37 @@
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="G5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="G5" t="n">
-        <v>78255.49332178177</v>
-      </c>
       <c r="H5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
+        <v>78255.49332178176</v>
+      </c>
+      <c r="M5" t="n">
         <v>78255.49332178175</v>
       </c>
-      <c r="M5" t="n">
-        <v>78255.49332178177</v>
-      </c>
       <c r="N5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.16241270167</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74760.16241270167</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233713.1283776202</v>
+        <v>233669.0219898423</v>
       </c>
       <c r="C6" t="n">
-        <v>172514.4116471372</v>
+        <v>174321.0084969883</v>
       </c>
       <c r="D6" t="n">
-        <v>190588.8420599535</v>
+        <v>188052.0453892275</v>
       </c>
       <c r="E6" t="n">
-        <v>-441451.4816739927</v>
+        <v>-442864.2506733523</v>
       </c>
       <c r="F6" t="n">
-        <v>531273.6949882081</v>
+        <v>529860.9259888469</v>
       </c>
       <c r="G6" t="n">
-        <v>531273.6949882064</v>
+        <v>529860.9259888452</v>
       </c>
       <c r="H6" t="n">
-        <v>531273.6949882081</v>
+        <v>529860.9259888469</v>
       </c>
       <c r="I6" t="n">
-        <v>531273.694988208</v>
+        <v>529860.9259888468</v>
       </c>
       <c r="J6" t="n">
-        <v>495709.4103534382</v>
+        <v>492280.816693973</v>
       </c>
       <c r="K6" t="n">
-        <v>528970.954171779</v>
+        <v>529860.9259888467</v>
       </c>
       <c r="L6" t="n">
-        <v>526955.1295116734</v>
+        <v>529860.9259888466</v>
       </c>
       <c r="M6" t="n">
-        <v>324085.1266961348</v>
+        <v>322672.3576967741</v>
       </c>
       <c r="N6" t="n">
-        <v>531273.6949882079</v>
+        <v>529860.9259888468</v>
       </c>
       <c r="O6" t="n">
-        <v>512661.8725475322</v>
+        <v>506752.2143775159</v>
       </c>
       <c r="P6" t="n">
-        <v>512661.8725475321</v>
+        <v>506752.2143775161</v>
       </c>
     </row>
   </sheetData>
@@ -26697,22 +26697,22 @@
         <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859253</v>
@@ -26724,10 +26724,10 @@
         <v>46.97513661859253</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>105.8445282175514</v>
+        <v>102.9317557356095</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292599</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666543</v>
+        <v>-4.973799150320701e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>102.1706653243091</v>
+        <v>99.2578928423672</v>
       </c>
       <c r="D3" t="n">
-        <v>128.9355099084428</v>
+        <v>131.8482823903847</v>
       </c>
       <c r="E3" t="n">
         <v>854.9966624673041</v>
@@ -26977,10 +26977,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292599</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.1170924691018</v>
+        <v>335.2370138004815</v>
       </c>
       <c r="I5" t="n">
-        <v>194.0715833428395</v>
+        <v>194.5230191663975</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>123.1404492149356</v>
+        <v>123.8760047703879</v>
       </c>
       <c r="S5" t="n">
-        <v>199.3238597902355</v>
+        <v>199.5906931688576</v>
       </c>
       <c r="T5" t="n">
-        <v>221.233198620323</v>
+        <v>221.2844575611861</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3116124565504</v>
+        <v>251.3125492275999</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1158515742144</v>
+        <v>137.1221167829491</v>
       </c>
       <c r="H6" t="n">
-        <v>110.0366739427696</v>
+        <v>110.0971826692341</v>
       </c>
       <c r="I6" t="n">
-        <v>81.55814656360585</v>
+        <v>81.77385660118361</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>86.02259696917466</v>
+        <v>86.4115894904423</v>
       </c>
       <c r="S6" t="n">
-        <v>167.4543826415611</v>
+        <v>167.5707561459104</v>
       </c>
       <c r="T6" t="n">
-        <v>199.2470766058411</v>
+        <v>199.2723297936799</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9264040816988</v>
+        <v>225.9268162664839</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8001121764271</v>
+        <v>167.8053647169683</v>
       </c>
       <c r="H7" t="n">
-        <v>160.5301897435582</v>
+        <v>160.5768896040064</v>
       </c>
       <c r="I7" t="n">
-        <v>149.7105782167065</v>
+        <v>149.8685364358911</v>
       </c>
       <c r="J7" t="n">
-        <v>79.86487034703512</v>
+        <v>80.23622496329843</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09419558620569646</v>
+        <v>0.704445296356802</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.17951949084413</v>
+        <v>70.61934813561734</v>
       </c>
       <c r="R7" t="n">
-        <v>168.7113088105464</v>
+        <v>168.9474821334265</v>
       </c>
       <c r="S7" t="n">
-        <v>220.6903036010207</v>
+        <v>220.7818410575433</v>
       </c>
       <c r="T7" t="n">
-        <v>227.1300660141463</v>
+        <v>227.1525086873678</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3086184192891</v>
+        <v>286.3089049215005</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859168</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859236</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -30006,7 +30006,7 @@
         <v>46.97513661859253</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>46.97513661859253</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859301</v>
       </c>
       <c r="Q37" t="n">
         <v>46.97513661859253</v>
@@ -30243,7 +30243,7 @@
         <v>46.97513661859253</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>46.97513661859253</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K40" t="n">
         <v>46.97513661859253</v>
@@ -30422,7 +30422,7 @@
         <v>46.97513661859253</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859301</v>
       </c>
       <c r="Q40" t="n">
         <v>46.97513661859253</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.398206845666543</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4255056410755832</v>
+        <v>0.4137960029572239</v>
       </c>
       <c r="H5" t="n">
-        <v>4.357709646665318</v>
+        <v>4.23778831528567</v>
       </c>
       <c r="I5" t="n">
-        <v>16.40430622756644</v>
+        <v>15.95287040400839</v>
       </c>
       <c r="J5" t="n">
-        <v>36.11425940423882</v>
+        <v>35.12041850599071</v>
       </c>
       <c r="K5" t="n">
-        <v>54.12591319096826</v>
+        <v>52.63640331117001</v>
       </c>
       <c r="L5" t="n">
-        <v>67.14798145403515</v>
+        <v>65.30011273667216</v>
       </c>
       <c r="M5" t="n">
-        <v>74.71506739851306</v>
+        <v>72.65895740426269</v>
       </c>
       <c r="N5" t="n">
-        <v>75.92403530121906</v>
+        <v>73.83465529766491</v>
       </c>
       <c r="O5" t="n">
-        <v>71.69291358277373</v>
+        <v>69.71997129325901</v>
       </c>
       <c r="P5" t="n">
-        <v>61.18824306872025</v>
+        <v>59.50438247025253</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.94982229770092</v>
+        <v>44.68531311434694</v>
       </c>
       <c r="R5" t="n">
-        <v>26.72866872621413</v>
+        <v>25.99311317076174</v>
       </c>
       <c r="S5" t="n">
-        <v>9.696209796009862</v>
+        <v>9.429376417387749</v>
       </c>
       <c r="T5" t="n">
-        <v>1.862650943808366</v>
+        <v>1.811392002945248</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03404045128604665</v>
+        <v>0.0331036802365779</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2276655889962426</v>
+        <v>0.2214003802614997</v>
       </c>
       <c r="H6" t="n">
-        <v>2.19877029372687</v>
+        <v>2.138261567262379</v>
       </c>
       <c r="I6" t="n">
-        <v>7.838486287809232</v>
+        <v>7.62277625023146</v>
       </c>
       <c r="J6" t="n">
-        <v>21.50940549371958</v>
+        <v>20.91748066321476</v>
       </c>
       <c r="K6" t="n">
-        <v>36.76299995646783</v>
+        <v>35.75130614073525</v>
       </c>
       <c r="L6" t="n">
-        <v>49.43239027745172</v>
+        <v>48.07204309142783</v>
       </c>
       <c r="M6" t="n">
-        <v>57.6852678785655</v>
+        <v>56.09780687590717</v>
       </c>
       <c r="N6" t="n">
-        <v>59.21202527143944</v>
+        <v>57.58254889967839</v>
       </c>
       <c r="O6" t="n">
-        <v>54.16743511525954</v>
+        <v>52.67678257914726</v>
       </c>
       <c r="P6" t="n">
-        <v>43.47414216543164</v>
+        <v>42.27776208695252</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.06131272871336</v>
+        <v>28.26156432952056</v>
       </c>
       <c r="R6" t="n">
-        <v>14.13523718346847</v>
+        <v>13.74624466220084</v>
       </c>
       <c r="S6" t="n">
-        <v>4.228788462276697</v>
+        <v>4.112414957927415</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9176520889804689</v>
+        <v>0.8923989011417464</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0149779992760686</v>
+        <v>0.01456581449088814</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.19086718203165</v>
+        <v>0.1856146414904433</v>
       </c>
       <c r="H7" t="n">
-        <v>1.696982763881399</v>
+        <v>1.650282903433216</v>
       </c>
       <c r="I7" t="n">
-        <v>5.739896710551805</v>
+        <v>5.581938491367153</v>
       </c>
       <c r="J7" t="n">
-        <v>13.49430976963766</v>
+        <v>13.12295515337435</v>
       </c>
       <c r="K7" t="n">
-        <v>22.17529623967716</v>
+        <v>21.56504652952605</v>
       </c>
       <c r="L7" t="n">
-        <v>28.3767444995055</v>
+        <v>27.59583497213374</v>
       </c>
       <c r="M7" t="n">
-        <v>29.91929836156129</v>
+        <v>29.09593875654286</v>
       </c>
       <c r="N7" t="n">
-        <v>29.20788431944334</v>
+        <v>28.40410236553305</v>
       </c>
       <c r="O7" t="n">
-        <v>26.9782086020736</v>
+        <v>26.23578587175831</v>
       </c>
       <c r="P7" t="n">
-        <v>23.08451808862792</v>
+        <v>22.44924718535325</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.98252376085026</v>
+        <v>15.54269511607704</v>
       </c>
       <c r="R7" t="n">
-        <v>8.582082566623098</v>
+        <v>8.345909243743025</v>
       </c>
       <c r="S7" t="n">
-        <v>3.326294435951573</v>
+        <v>3.234756979428907</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8155234141352318</v>
+        <v>0.7930807409137124</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01041093720172638</v>
+        <v>0.01012443499038783</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,7 +31530,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31539,7 +31539,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31554,7 +31554,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31624,7 +31624,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31691,7 +31691,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31703,13 +31703,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623188</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095034</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35570,7 +35570,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35588,7 +35588,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35816,7 +35816,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859626</v>
@@ -36056,7 +36056,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36290,16 +36290,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629119</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.05300088822</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36849,7 +36849,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193729</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37475,13 +37475,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637034</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.553553231659</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37712,13 +37712,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637034</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129124</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.9766234587328</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899862</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158647</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391504</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132067</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683064</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>240.355277990777</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356022</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.9766234587328</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>211.4458663899862</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>325.1555790158647</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>353.0315862391504</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>350.2551530132067</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>307.7513370683064</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>240.355277990777</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.79244538356022</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
